--- a/scripts/novelty_algo_4_results.xlsx
+++ b/scripts/novelty_algo_4_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="808">
   <si>
     <t>id</t>
   </si>
@@ -634,9 +634,6 @@
     <t>to entertain a baby (the noise they make)</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>unlock things</t>
   </si>
   <si>
@@ -829,9 +826,6 @@
     <t>['entertain', 'baby', 'noise']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['unlock', 'thing']</t>
   </si>
   <si>
@@ -1540,9 +1534,6 @@
     <t>an obstacle</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>sit</t>
   </si>
   <si>
@@ -1928,9 +1919,6 @@
   </si>
   <si>
     <t>poke a hole in a piece of paper</t>
-  </si>
-  <si>
-    <t>make a</t>
   </si>
   <si>
     <t>writing</t>
@@ -4135,7 +4123,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4169,7 +4157,7 @@
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>1.15959296174736</v>
@@ -4186,7 +4174,7 @@
         <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>1.061480773341956</v>
@@ -4203,7 +4191,7 @@
         <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E4">
         <v>0.9981188095148285</v>
@@ -4220,7 +4208,7 @@
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5">
         <v>1.03131997380084</v>
@@ -4237,7 +4225,7 @@
         <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E6">
         <v>1.061480773341956</v>
@@ -4254,7 +4242,7 @@
         <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7">
         <v>1.192118685971369</v>
@@ -4271,7 +4259,7 @@
         <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E8">
         <v>1.095362076544957</v>
@@ -4288,7 +4276,7 @@
         <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E9">
         <v>1.070199887801537</v>
@@ -4305,7 +4293,7 @@
         <v>151</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E10">
         <v>1.078032547972022</v>
@@ -4322,7 +4310,7 @@
         <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11">
         <v>1.070199887801537</v>
@@ -4339,7 +4327,7 @@
         <v>153</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E12">
         <v>1.050202715911495</v>
@@ -4356,7 +4344,7 @@
         <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>1.134213358748139</v>
@@ -4373,7 +4361,7 @@
         <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14">
         <v>1.03131997380084</v>
@@ -4390,7 +4378,7 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>1.16823272690219</v>
@@ -4407,7 +4395,7 @@
         <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E16">
         <v>1.095362076544957</v>
@@ -4424,7 +4412,7 @@
         <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E17">
         <v>1.199788383497287</v>
@@ -4441,7 +4429,7 @@
         <v>146</v>
       </c>
       <c r="D18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>1.03131997380084</v>
@@ -4458,7 +4446,7 @@
         <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>1.082528434631311</v>
@@ -4475,7 +4463,7 @@
         <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20">
         <v>1.013752687901703</v>
@@ -4492,7 +4480,7 @@
         <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>1.108919918255143</v>
@@ -4509,7 +4497,7 @@
         <v>162</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E22">
         <v>0.9375547117380791</v>
@@ -4526,7 +4514,7 @@
         <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23">
         <v>1.03131997380084</v>
@@ -4543,7 +4531,7 @@
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E24">
         <v>1.108919918255143</v>
@@ -4560,7 +4548,7 @@
         <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25">
         <v>1.061480773341956</v>
@@ -4577,7 +4565,7 @@
         <v>165</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E26">
         <v>1.183319574044472</v>
@@ -4594,7 +4582,7 @@
         <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E27">
         <v>1.03131997380084</v>
@@ -4611,7 +4599,7 @@
         <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28">
         <v>1.108919918255143</v>
@@ -4628,7 +4616,7 @@
         <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>1.095362076544957</v>
@@ -4645,7 +4633,7 @@
         <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E30">
         <v>1.082528434631311</v>
@@ -4662,7 +4650,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E31">
         <v>1.086291453576068</v>
@@ -4679,7 +4667,7 @@
         <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E32">
         <v>0.9615488340833034</v>
@@ -4696,7 +4684,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33">
         <v>1.086291453576068</v>
@@ -4713,7 +4701,7 @@
         <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E34">
         <v>0.8916287134879554</v>
@@ -4730,7 +4718,7 @@
         <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35">
         <v>1.082528434631311</v>
@@ -4764,7 +4752,7 @@
         <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E37">
         <v>0.714954400413136</v>
@@ -4781,7 +4769,7 @@
         <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E38">
         <v>1.061480773341956</v>
@@ -4815,7 +4803,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E40">
         <v>1.03131997380084</v>
@@ -4832,7 +4820,7 @@
         <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41">
         <v>0.9981188095148285</v>
@@ -4866,7 +4854,7 @@
         <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E43">
         <v>1.026441931905913</v>
@@ -4883,7 +4871,7 @@
         <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E44">
         <v>1.03131997380084</v>
@@ -4900,7 +4888,7 @@
         <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E45">
         <v>0.9382343880925161</v>
@@ -4917,7 +4905,7 @@
         <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46">
         <v>1.19490921487813</v>
@@ -4934,7 +4922,7 @@
         <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47">
         <v>1.171070389690014</v>
@@ -4951,7 +4939,7 @@
         <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48">
         <v>0.714954400413136</v>
@@ -4968,7 +4956,7 @@
         <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49">
         <v>1.010230702618433</v>
@@ -4985,7 +4973,7 @@
         <v>184</v>
       </c>
       <c r="D50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50">
         <v>1.284187108049192</v>
@@ -5002,7 +4990,7 @@
         <v>155</v>
       </c>
       <c r="D51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E51">
         <v>1.03131997380084</v>
@@ -5019,7 +5007,7 @@
         <v>185</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52">
         <v>1.076661442554717</v>
@@ -5036,7 +5024,7 @@
         <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E53">
         <v>1.091238611672338</v>
@@ -5053,7 +5041,7 @@
         <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E54">
         <v>1.19326840250833</v>
@@ -5070,7 +5058,7 @@
         <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E55">
         <v>0.9615488340833034</v>
@@ -5087,7 +5075,7 @@
         <v>174</v>
       </c>
       <c r="D56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E56">
         <v>1.061480773341956</v>
@@ -5104,7 +5092,7 @@
         <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57">
         <v>1.086026621743873</v>
@@ -5121,7 +5109,7 @@
         <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E58">
         <v>1.105103744613769</v>
@@ -5138,7 +5126,7 @@
         <v>191</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>1.03131997380084</v>
@@ -5155,7 +5143,7 @@
         <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60">
         <v>1.192118685971369</v>
@@ -5172,7 +5160,7 @@
         <v>192</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E61">
         <v>1.023655256210473</v>
@@ -5189,7 +5177,7 @@
         <v>193</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E62">
         <v>1.129748152359721</v>
@@ -5206,7 +5194,7 @@
         <v>194</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E63">
         <v>1.226075350994594</v>
@@ -5223,7 +5211,7 @@
         <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E64">
         <v>1.03131997380084</v>
@@ -5257,7 +5245,7 @@
         <v>196</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E66">
         <v>1.165377925497839</v>
@@ -5274,7 +5262,7 @@
         <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E67">
         <v>0.9024017789193699</v>
@@ -5291,7 +5279,7 @@
         <v>198</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E68">
         <v>1.084853135806242</v>
@@ -5308,7 +5296,7 @@
         <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69">
         <v>1.122862053273463</v>
@@ -5325,7 +5313,7 @@
         <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E70">
         <v>1.03131997380084</v>
@@ -5342,7 +5330,7 @@
         <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E71">
         <v>1.095362076544957</v>
@@ -5359,7 +5347,7 @@
         <v>200</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72">
         <v>1.061480773341956</v>
@@ -5376,7 +5364,7 @@
         <v>201</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E73">
         <v>1.125728349481109</v>
@@ -5393,7 +5381,7 @@
         <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E74">
         <v>1.216310751555142</v>
@@ -5410,7 +5398,7 @@
         <v>203</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E75">
         <v>1.192269552401715</v>
@@ -5418,7 +5406,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1786</v>
+        <v>1762</v>
       </c>
       <c r="B76" t="s">
         <v>142</v>
@@ -5427,10 +5415,10 @@
         <v>204</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1.109038214951658</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5444,10 +5432,10 @@
         <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E77">
-        <v>1.109038214951658</v>
+        <v>1.226293642724987</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5461,10 +5449,10 @@
         <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E78">
-        <v>1.226293642724987</v>
+        <v>0.9375547117380791</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5478,10 +5466,10 @@
         <v>207</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E79">
-        <v>0.9375547117380791</v>
+        <v>1.155527015801005</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5495,10 +5483,10 @@
         <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E80">
-        <v>1.155527015801005</v>
+        <v>1.111932545180499</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5512,15 +5500,15 @@
         <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E81">
-        <v>1.111932545180499</v>
+        <v>1.095362076544957</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1762</v>
+        <v>1731</v>
       </c>
       <c r="B82" t="s">
         <v>142</v>
@@ -5529,27 +5517,27 @@
         <v>210</v>
       </c>
       <c r="D82" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="E82">
-        <v>1.095362076544957</v>
+        <v>1.229843404317157</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1731</v>
+        <v>1779</v>
       </c>
       <c r="B83" t="s">
         <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="E83">
-        <v>1.229843404317157</v>
+        <v>1.03131997380084</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5560,13 +5548,13 @@
         <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E84">
-        <v>1.03131997380084</v>
+        <v>1.095362076544957</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5577,13 +5565,13 @@
         <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="E85">
-        <v>1.095362076544957</v>
+        <v>1.111932545180499</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5597,26 +5585,9 @@
         <v>212</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E86">
-        <v>1.111932545180499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>1779</v>
-      </c>
-      <c r="B87" t="s">
-        <v>142</v>
-      </c>
-      <c r="C87" t="s">
-        <v>213</v>
-      </c>
-      <c r="D87" t="s">
-        <v>277</v>
-      </c>
-      <c r="E87">
         <v>1.016771804625875</v>
       </c>
     </row>
@@ -5627,7 +5598,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5655,13 +5626,13 @@
         <v>1476</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E2">
         <v>0.5516399367097513</v>
@@ -5672,13 +5643,13 @@
         <v>1476</v>
       </c>
       <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
         <v>278</v>
       </c>
-      <c r="C3" t="s">
-        <v>280</v>
-      </c>
       <c r="D3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E3">
         <v>0.5330153008004761</v>
@@ -5689,13 +5660,13 @@
         <v>1476</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E4">
         <v>0.4387031886640764</v>
@@ -5706,13 +5677,13 @@
         <v>1476</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E5">
         <v>0.6428507171933568</v>
@@ -5723,13 +5694,13 @@
         <v>1698</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E6">
         <v>0.4387031886640764</v>
@@ -5740,13 +5711,13 @@
         <v>1698</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E7">
         <v>0.5579808159933057</v>
@@ -5757,13 +5728,13 @@
         <v>1698</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E8">
         <v>0.5516399367097513</v>
@@ -5774,13 +5745,13 @@
         <v>1698</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>1.078954776307161</v>
@@ -5791,13 +5762,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10">
         <v>0.4387031886640764</v>
@@ -5808,13 +5779,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E11">
         <v>0.9615677557166924</v>
@@ -5825,13 +5796,13 @@
         <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E12">
         <v>1.005699241345916</v>
@@ -5842,13 +5813,13 @@
         <v>1747</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E13">
         <v>0.9922042210738877</v>
@@ -5859,13 +5830,13 @@
         <v>1747</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E14">
         <v>0.931700415701201</v>
@@ -5876,13 +5847,13 @@
         <v>1747</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E15">
         <v>1.140693963809835</v>
@@ -5893,13 +5864,13 @@
         <v>1741</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E16">
         <v>0.5330153008004761</v>
@@ -5910,13 +5881,13 @@
         <v>1741</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D17" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E17">
         <v>0.5579808159933057</v>
@@ -5927,13 +5898,13 @@
         <v>1741</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D18" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>0.7391574466896726</v>
@@ -5944,13 +5915,13 @@
         <v>1741</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E19">
         <v>0.5516399367097513</v>
@@ -5961,13 +5932,13 @@
         <v>1691</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E20">
         <v>0.8893300164455193</v>
@@ -5978,13 +5949,13 @@
         <v>1691</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E21">
         <v>0.5516399367097513</v>
@@ -5995,13 +5966,13 @@
         <v>1691</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22">
         <v>0.7829352397753575</v>
@@ -6012,13 +5983,13 @@
         <v>1691</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23">
         <v>0.9319201459076321</v>
@@ -6029,13 +6000,13 @@
         <v>1788</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24">
         <v>1.001580494431981</v>
@@ -6046,13 +6017,13 @@
         <v>1788</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>1.078954776307161</v>
@@ -6063,13 +6034,13 @@
         <v>1788</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E26">
         <v>0.7936503538734226</v>
@@ -6080,13 +6051,13 @@
         <v>1788</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E27">
         <v>0.9319201459076321</v>
@@ -6097,13 +6068,13 @@
         <v>1788</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E28">
         <v>0.4387031886640764</v>
@@ -6114,13 +6085,13 @@
         <v>1766</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E29">
         <v>0.4387031886640764</v>
@@ -6131,13 +6102,13 @@
         <v>1766</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E30">
         <v>0.5579808159933057</v>
@@ -6148,13 +6119,13 @@
         <v>1766</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E31">
         <v>0.9774271213201073</v>
@@ -6165,13 +6136,13 @@
         <v>1766</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E32">
         <v>0.9774271213201073</v>
@@ -6182,13 +6153,13 @@
         <v>1745</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E33">
         <v>0.7025747984474466</v>
@@ -6199,13 +6170,13 @@
         <v>1745</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E34">
         <v>0.875844221334068</v>
@@ -6216,13 +6187,13 @@
         <v>1745</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D35" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E35">
         <v>0.5579808159933057</v>
@@ -6233,13 +6204,13 @@
         <v>1745</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E36">
         <v>1.078954776307161</v>
@@ -6250,13 +6221,13 @@
         <v>1745</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D37" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E37">
         <v>0.9922042210738877</v>
@@ -6267,13 +6238,13 @@
         <v>1780</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E38">
         <v>0.842056201331747</v>
@@ -6284,13 +6255,13 @@
         <v>1780</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E39">
         <v>1.078954776307161</v>
@@ -6301,13 +6272,13 @@
         <v>1780</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
         <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E40">
         <v>0.9774271213201073</v>
@@ -6318,13 +6289,13 @@
         <v>1780</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D41" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E41">
         <v>0.6244605351564887</v>
@@ -6335,13 +6306,13 @@
         <v>1780</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E42">
         <v>0.8975985194292592</v>
@@ -6352,13 +6323,13 @@
         <v>1690</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D43" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E43">
         <v>0.842056201331747</v>
@@ -6369,13 +6340,13 @@
         <v>1690</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E44">
         <v>0.6686688401691938</v>
@@ -6386,13 +6357,13 @@
         <v>1690</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D45" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E45">
         <v>0.5933468546001365</v>
@@ -6403,13 +6374,13 @@
         <v>1690</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E46">
         <v>0.7025747984474466</v>
@@ -6420,13 +6391,13 @@
         <v>1690</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E47">
         <v>0.842056201331747</v>
@@ -6437,13 +6408,13 @@
         <v>1736</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E48">
         <v>0.8410712566465564</v>
@@ -6454,13 +6425,13 @@
         <v>1736</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E49">
         <v>0.8975985194292592</v>
@@ -6471,13 +6442,13 @@
         <v>1736</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E50">
         <v>0.7062533507116785</v>
@@ -6488,13 +6459,13 @@
         <v>1736</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E51">
         <v>0.653106458386867</v>
@@ -6505,13 +6476,13 @@
         <v>1736</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E52">
         <v>0.9594092730882972</v>
@@ -6522,13 +6493,13 @@
         <v>1692</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E53">
         <v>0.7844352145442539</v>
@@ -6539,13 +6510,13 @@
         <v>1692</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D54" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E54">
         <v>0.6773642845988225</v>
@@ -6556,13 +6527,13 @@
         <v>1692</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D55" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E55">
         <v>0.6929933518719446</v>
@@ -6573,13 +6544,13 @@
         <v>1692</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D56" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E56">
         <v>0.8001966657824202</v>
@@ -6590,13 +6561,13 @@
         <v>1713</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E57">
         <v>0.842056201331747</v>
@@ -6607,13 +6578,13 @@
         <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E58">
         <v>0.9774271213201073</v>
@@ -6624,13 +6595,13 @@
         <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C59" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D59" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E59">
         <v>1.078954776307161</v>
@@ -6641,13 +6612,13 @@
         <v>1713</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E60">
         <v>0.9774271213201073</v>
@@ -6658,13 +6629,13 @@
         <v>1624</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D61" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E61">
         <v>0.5579808159933057</v>
@@ -6675,13 +6646,13 @@
         <v>1624</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E62">
         <v>0.7546415866628664</v>
@@ -6692,13 +6663,13 @@
         <v>1624</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E63">
         <v>0.6252547234072585</v>
@@ -6709,13 +6680,13 @@
         <v>1786</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E64">
         <v>0.5330153008004761</v>
@@ -6726,13 +6697,13 @@
         <v>1786</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E65">
         <v>0.831611788502379</v>
@@ -6743,13 +6714,13 @@
         <v>1786</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E66">
         <v>0.5579808159933057</v>
@@ -6760,13 +6731,13 @@
         <v>1786</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E67">
         <v>0.9319201459076321</v>
@@ -6777,13 +6748,13 @@
         <v>1786</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D68" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E68">
         <v>1.074244598303674</v>
@@ -6794,13 +6765,13 @@
         <v>1786</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E69">
         <v>1.078954776307161</v>
@@ -6811,13 +6782,13 @@
         <v>1786</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D70" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E70">
         <v>0.4790894643708206</v>
@@ -6828,13 +6799,13 @@
         <v>1786</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E71">
         <v>0.9088399139217213</v>
@@ -6842,19 +6813,19 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
       <c r="D72" t="s">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.7025747984474466</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6862,16 +6833,16 @@
         <v>1793</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="E73">
-        <v>0.7025747984474466</v>
+        <v>0.842056201331747</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -6879,13 +6850,13 @@
         <v>1793</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C74" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D74" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E74">
         <v>0.842056201331747</v>
@@ -6896,16 +6867,16 @@
         <v>1793</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C75" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D75" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E75">
-        <v>0.842056201331747</v>
+        <v>0.9907672418308607</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -6913,33 +6884,33 @@
         <v>1793</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E76">
-        <v>0.9907672418308607</v>
+        <v>0.9241479308671124</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1793</v>
+        <v>1762</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D77" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="E77">
-        <v>0.9241479308671124</v>
+        <v>0.4387031886640764</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6947,16 +6918,16 @@
         <v>1762</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" t="s">
         <v>359</v>
       </c>
       <c r="E78">
-        <v>0.4387031886640764</v>
+        <v>0.5579808159933057</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -6964,16 +6935,16 @@
         <v>1762</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="E79">
-        <v>0.5579808159933057</v>
+        <v>0.4646848561981327</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -6981,16 +6952,16 @@
         <v>1762</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D80" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E80">
-        <v>0.4646848561981327</v>
+        <v>0.8131662383444261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6998,33 +6969,33 @@
         <v>1762</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E81">
-        <v>0.8131662383444261</v>
+        <v>0.994371633252369</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>1762</v>
+        <v>1722</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="E82">
-        <v>0.994371633252369</v>
+        <v>0.4387031886640764</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7032,16 +7003,16 @@
         <v>1722</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D83" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="E83">
-        <v>0.4387031886640764</v>
+        <v>0.6554816282053529</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -7049,33 +7020,33 @@
         <v>1722</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D84" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="E84">
-        <v>0.6554816282053529</v>
+        <v>0.6244605351564887</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D85" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E85">
-        <v>0.6244605351564887</v>
+        <v>0.842056201331747</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -7083,16 +7054,16 @@
         <v>1733</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C86" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D86" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="E86">
-        <v>0.842056201331747</v>
+        <v>0.4387031886640764</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -7100,16 +7071,16 @@
         <v>1733</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>112</v>
       </c>
       <c r="E87">
-        <v>0.4387031886640764</v>
+        <v>0.8975985194292592</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -7117,32 +7088,15 @@
         <v>1733</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>415</v>
       </c>
       <c r="E88">
-        <v>0.8975985194292592</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>1733</v>
-      </c>
-      <c r="B89" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" t="s">
-        <v>417</v>
-      </c>
-      <c r="E89">
         <v>0.8131662383444261</v>
       </c>
     </row>
@@ -7181,13 +7135,13 @@
         <v>1476</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E2">
         <v>0.9367809863818952</v>
@@ -7198,10 +7152,10 @@
         <v>1476</v>
       </c>
       <c r="B3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" t="s">
         <v>418</v>
-      </c>
-      <c r="C3" t="s">
-        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
@@ -7215,10 +7169,10 @@
         <v>1476</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
@@ -7232,13 +7186,13 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E5">
         <v>0.6094642527190361</v>
@@ -7249,13 +7203,13 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E6">
         <v>0.9056538958202948</v>
@@ -7266,13 +7220,13 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E7">
         <v>0.8012908616361374</v>
@@ -7283,13 +7237,13 @@
         <v>1718</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E8">
         <v>0.8012908616361374</v>
@@ -7300,13 +7254,13 @@
         <v>1691</v>
       </c>
       <c r="B9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E9">
         <v>0.6094642527190361</v>
@@ -7317,13 +7271,13 @@
         <v>1691</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E10">
         <v>0.9056538958202948</v>
@@ -7334,13 +7288,13 @@
         <v>1691</v>
       </c>
       <c r="B11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E11">
         <v>1.022160547602257</v>
@@ -7351,13 +7305,13 @@
         <v>1691</v>
       </c>
       <c r="B12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E12">
         <v>0.984610779894162</v>
@@ -7368,13 +7322,13 @@
         <v>1691</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E13">
         <v>0.9749137462323894</v>
@@ -7385,13 +7339,13 @@
         <v>1678</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E14">
         <v>0.5790915960570677</v>
@@ -7402,13 +7356,13 @@
         <v>1678</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E15">
         <v>0.7921975494438404</v>
@@ -7419,7 +7373,7 @@
         <v>1678</v>
       </c>
       <c r="B16" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -7436,13 +7390,13 @@
         <v>1678</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E17">
         <v>0.9056538958202948</v>
@@ -7453,13 +7407,13 @@
         <v>1678</v>
       </c>
       <c r="B18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E18">
         <v>0.6823658828768728</v>
@@ -7470,13 +7424,13 @@
         <v>1678</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E19">
         <v>0.6044271694429921</v>
@@ -7487,13 +7441,13 @@
         <v>1690</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E20">
         <v>0.6094642527190361</v>
@@ -7504,13 +7458,13 @@
         <v>1690</v>
       </c>
       <c r="B21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E21">
         <v>1.062413142369244</v>
@@ -7521,13 +7475,13 @@
         <v>1690</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22">
         <v>0.8996962453175255</v>
@@ -7538,13 +7492,13 @@
         <v>1738</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E23">
         <v>0.6094642527190361</v>
@@ -7555,13 +7509,13 @@
         <v>1738</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E24">
         <v>0.7837600130858476</v>
@@ -7572,13 +7526,13 @@
         <v>1738</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>0.8996962453175255</v>
@@ -7589,13 +7543,13 @@
         <v>1713</v>
       </c>
       <c r="B26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E26">
         <v>0.6094642527190361</v>
@@ -7606,13 +7560,13 @@
         <v>1713</v>
       </c>
       <c r="B27" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E27">
         <v>0.9553636242437851</v>
@@ -7623,13 +7577,13 @@
         <v>1713</v>
       </c>
       <c r="B28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E28">
         <v>1.050074052352141</v>
@@ -7640,13 +7594,13 @@
         <v>1713</v>
       </c>
       <c r="B29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E29">
         <v>0.9553636242437851</v>
@@ -7657,13 +7611,13 @@
         <v>1793</v>
       </c>
       <c r="B30" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E30">
         <v>0.9656098897417477</v>
@@ -7674,13 +7628,13 @@
         <v>1793</v>
       </c>
       <c r="B31" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E31">
         <v>0.9561770182459527</v>
@@ -7691,13 +7645,13 @@
         <v>1793</v>
       </c>
       <c r="B32" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E32">
         <v>0.9203646362817941</v>
@@ -7708,13 +7662,13 @@
         <v>1793</v>
       </c>
       <c r="B33" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E33">
         <v>0.9415559142014519</v>
@@ -7725,13 +7679,13 @@
         <v>1762</v>
       </c>
       <c r="B34" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D34" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E34">
         <v>0.6094642527190361</v>
@@ -7742,13 +7696,13 @@
         <v>1762</v>
       </c>
       <c r="B35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E35">
         <v>0.9561770182459527</v>
@@ -7759,13 +7713,13 @@
         <v>1762</v>
       </c>
       <c r="B36" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C36" t="s">
         <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E36">
         <v>0.8996962453175255</v>
@@ -7776,13 +7730,13 @@
         <v>1762</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E37">
         <v>1.007837909662618</v>
@@ -7793,13 +7747,13 @@
         <v>1731</v>
       </c>
       <c r="B38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E38">
         <v>0.8976212847423541</v>
@@ -7810,7 +7764,7 @@
         <v>1731</v>
       </c>
       <c r="B39" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C39" t="s">
         <v>73</v>
@@ -7827,13 +7781,13 @@
         <v>1731</v>
       </c>
       <c r="B40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E40">
         <v>0.8132574285355351</v>
@@ -7844,13 +7798,13 @@
         <v>1722</v>
       </c>
       <c r="B41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E41">
         <v>0.9656098897417477</v>
@@ -7861,13 +7815,13 @@
         <v>1722</v>
       </c>
       <c r="B42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E42">
         <v>0.9656098897417477</v>
@@ -7878,13 +7832,13 @@
         <v>1722</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E43">
         <v>1.050783937688184</v>
@@ -7895,13 +7849,13 @@
         <v>1722</v>
       </c>
       <c r="B44" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E44">
         <v>0.9468568236805573</v>
@@ -7912,13 +7866,13 @@
         <v>1779</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C45" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D45" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E45">
         <v>0.6094642527190361</v>
@@ -7929,13 +7883,13 @@
         <v>1779</v>
       </c>
       <c r="B46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E46">
         <v>1.019428388785597</v>
@@ -7946,13 +7900,13 @@
         <v>1779</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E47">
         <v>0.7069496139552323</v>
@@ -7963,13 +7917,13 @@
         <v>1779</v>
       </c>
       <c r="B48" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C48" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E48">
         <v>0.9734461710831105</v>
@@ -7980,13 +7934,13 @@
         <v>1779</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E49">
         <v>0.9078838488870972</v>
@@ -7997,13 +7951,13 @@
         <v>1733</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C50" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E50">
         <v>0.6094642527190361</v>
@@ -8014,13 +7968,13 @@
         <v>1733</v>
       </c>
       <c r="B51" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E51">
         <v>0.9561770182459527</v>
@@ -8031,10 +7985,10 @@
         <v>1733</v>
       </c>
       <c r="B52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -8050,7 +8004,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8078,13 +8032,13 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E2">
         <v>0.6592270483859637</v>
@@ -8095,13 +8049,13 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" t="s">
         <v>497</v>
       </c>
-      <c r="C3" t="s">
-        <v>499</v>
-      </c>
       <c r="D3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E3">
         <v>0.8184656585502179</v>
@@ -8112,13 +8066,13 @@
         <v>1698</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E4">
         <v>0.9639754451384297</v>
@@ -8129,13 +8083,13 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E5">
         <v>1.00113615211561</v>
@@ -8146,13 +8100,13 @@
         <v>1716</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E6">
         <v>1.019320148111262</v>
@@ -8163,13 +8117,13 @@
         <v>1716</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E7">
         <v>0.9207855339582953</v>
@@ -8180,10 +8134,10 @@
         <v>1716</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
         <v>137</v>
@@ -8197,13 +8151,13 @@
         <v>1716</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E9">
         <v>1.113333054669059</v>
@@ -8211,19 +8165,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>563</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8231,16 +8185,16 @@
         <v>1718</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E11">
-        <v>0.6592270483859637</v>
+        <v>0.8184656585502179</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8248,16 +8202,16 @@
         <v>1718</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E12">
-        <v>0.8184656585502179</v>
+        <v>1.169218927334223</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8265,33 +8219,33 @@
         <v>1718</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E13">
-        <v>1.169218927334223</v>
+        <v>1.210473880303224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1718</v>
+        <v>1747</v>
       </c>
       <c r="B14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E14">
-        <v>1.210473880303224</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8299,16 +8253,16 @@
         <v>1747</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="E15">
-        <v>0.6592270483859637</v>
+        <v>1.060994225192537</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8316,16 +8270,16 @@
         <v>1747</v>
       </c>
       <c r="B16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D16" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E16">
-        <v>1.060994225192537</v>
+        <v>0.8487807830467486</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8333,16 +8287,16 @@
         <v>1747</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>116</v>
       </c>
       <c r="E17">
-        <v>0.8487807830467486</v>
+        <v>1.011431408348576</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8350,16 +8304,16 @@
         <v>1747</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>574</v>
       </c>
       <c r="E18">
-        <v>1.011431408348576</v>
+        <v>1.097359939619617</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8367,16 +8321,16 @@
         <v>1747</v>
       </c>
       <c r="B19" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E19">
-        <v>1.097359939619617</v>
+        <v>0.940948463010668</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8384,33 +8338,33 @@
         <v>1747</v>
       </c>
       <c r="B20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C20" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E20">
-        <v>0.940948463010668</v>
+        <v>1.075320457081957</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1747</v>
+        <v>1741</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C21" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D21" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E21">
-        <v>1.075320457081957</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8418,16 +8372,16 @@
         <v>1741</v>
       </c>
       <c r="B22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C22" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="E22">
-        <v>0.6592270483859637</v>
+        <v>0.940948463010668</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8435,16 +8389,16 @@
         <v>1741</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D23" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E23">
-        <v>0.940948463010668</v>
+        <v>1.040903500743291</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8452,16 +8406,16 @@
         <v>1741</v>
       </c>
       <c r="B24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>580</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>1.040903500743291</v>
+        <v>0.9990703303287427</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8469,33 +8423,33 @@
         <v>1741</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>578</v>
       </c>
       <c r="E25">
-        <v>0.9990703303287427</v>
+        <v>0.9181194669672825</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1741</v>
+        <v>1691</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C26" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D26" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E26">
-        <v>0.9181194669672825</v>
+        <v>0.7888442792162861</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -8503,16 +8457,16 @@
         <v>1691</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E27">
-        <v>0.7888442792162861</v>
+        <v>0.9376444771539055</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8520,16 +8474,16 @@
         <v>1691</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E28">
-        <v>0.9376444771539055</v>
+        <v>1.015617337143278</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8537,16 +8491,16 @@
         <v>1691</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E29">
-        <v>1.015617337143278</v>
+        <v>1.077757116233793</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8554,33 +8508,33 @@
         <v>1691</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E30">
-        <v>1.077757116233793</v>
+        <v>1.071521975766549</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1691</v>
+        <v>1678</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="D31" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="E31">
-        <v>1.071521975766549</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -8588,16 +8542,16 @@
         <v>1678</v>
       </c>
       <c r="B32" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D32" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="E32">
-        <v>0.6592270483859637</v>
+        <v>1.019320148111262</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8605,16 +8559,16 @@
         <v>1678</v>
       </c>
       <c r="B33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" t="s">
         <v>497</v>
       </c>
-      <c r="C33" t="s">
-        <v>525</v>
-      </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="E33">
-        <v>1.019320148111262</v>
+        <v>0.8184656585502179</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8622,16 +8576,16 @@
         <v>1678</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
       <c r="E34">
-        <v>0.8184656585502179</v>
+        <v>0.9335223187714717</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8639,16 +8593,16 @@
         <v>1678</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D35" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E35">
-        <v>0.9335223187714717</v>
+        <v>0.8804581344388098</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8656,16 +8610,16 @@
         <v>1678</v>
       </c>
       <c r="B36" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D36" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E36">
-        <v>0.8804581344388098</v>
+        <v>1.058573600066719</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -8673,33 +8627,33 @@
         <v>1678</v>
       </c>
       <c r="B37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D37" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E37">
-        <v>1.058573600066719</v>
+        <v>0.9362987287202206</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1678</v>
+        <v>1780</v>
       </c>
       <c r="B38" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C38" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D38" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="E38">
-        <v>0.9362987287202206</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8707,16 +8661,16 @@
         <v>1780</v>
       </c>
       <c r="B39" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C39" t="s">
-        <v>507</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>566</v>
+        <v>357</v>
       </c>
       <c r="E39">
-        <v>0.6592270483859637</v>
+        <v>1.016059232329422</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -8724,16 +8678,16 @@
         <v>1780</v>
       </c>
       <c r="B40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C40" t="s">
-        <v>346</v>
+        <v>527</v>
       </c>
       <c r="D40" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="E40">
-        <v>1.016059232329422</v>
+        <v>1.134227522237286</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -8741,33 +8695,33 @@
         <v>1780</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D41" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E41">
-        <v>1.134227522237286</v>
+        <v>1.075320457081957</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>1780</v>
+        <v>1702</v>
       </c>
       <c r="B42" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C42" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="D42" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E42">
-        <v>1.075320457081957</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -8775,16 +8729,16 @@
         <v>1702</v>
       </c>
       <c r="B43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="D43" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="E43">
-        <v>0.6592270483859637</v>
+        <v>1.068717542738792</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -8792,16 +8746,16 @@
         <v>1702</v>
       </c>
       <c r="B44" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C44" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D44" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="E44">
-        <v>1.068717542738792</v>
+        <v>0.9639754451384297</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -8809,16 +8763,16 @@
         <v>1702</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C45" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D45" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E45">
-        <v>0.9639754451384297</v>
+        <v>1.075320457081957</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -8826,16 +8780,16 @@
         <v>1702</v>
       </c>
       <c r="B46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C46" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D46" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E46">
-        <v>1.075320457081957</v>
+        <v>1.169218927334223</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -8843,33 +8797,33 @@
         <v>1702</v>
       </c>
       <c r="B47" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>594</v>
+        <v>108</v>
       </c>
       <c r="E47">
-        <v>1.169218927334223</v>
+        <v>1.018147659575993</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1702</v>
+        <v>1769</v>
       </c>
       <c r="B48" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>533</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>592</v>
       </c>
       <c r="E48">
-        <v>1.018147659575993</v>
+        <v>0.6821844316612065</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -8877,16 +8831,16 @@
         <v>1769</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C49" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E49">
-        <v>0.6821844316612065</v>
+        <v>1.009295384608231</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8894,33 +8848,33 @@
         <v>1769</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E50">
-        <v>1.009295384608231</v>
+        <v>1.065734296502385</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1769</v>
+        <v>1738</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D51" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="E51">
-        <v>1.065734296502385</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -8928,16 +8882,16 @@
         <v>1738</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C52" t="s">
-        <v>539</v>
+        <v>349</v>
       </c>
       <c r="D52" t="s">
-        <v>566</v>
+        <v>357</v>
       </c>
       <c r="E52">
-        <v>0.6592270483859637</v>
+        <v>1.016059232329422</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -8945,33 +8899,33 @@
         <v>1738</v>
       </c>
       <c r="B53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>351</v>
+        <v>537</v>
       </c>
       <c r="D53" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="E53">
-        <v>1.016059232329422</v>
+        <v>0.9010514485818343</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1738</v>
+        <v>1692</v>
       </c>
       <c r="B54" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C54" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D54" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="E54">
-        <v>0.9010514485818343</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -8979,16 +8933,16 @@
         <v>1692</v>
       </c>
       <c r="B55" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D55" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="E55">
-        <v>0.6592270483859637</v>
+        <v>1.083222280966681</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -8996,33 +8950,33 @@
         <v>1692</v>
       </c>
       <c r="B56" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D56" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E56">
-        <v>1.083222280966681</v>
+        <v>1.00184376203287</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1692</v>
+        <v>1713</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D57" t="s">
-        <v>600</v>
+        <v>563</v>
       </c>
       <c r="E57">
-        <v>1.00184376203287</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9030,16 +8984,16 @@
         <v>1713</v>
       </c>
       <c r="B58" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C58" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D58" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="E58">
-        <v>0.6592270483859637</v>
+        <v>1.108720783932611</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9047,33 +9001,33 @@
         <v>1713</v>
       </c>
       <c r="B59" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C59" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D59" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E59">
-        <v>1.108720783932611</v>
+        <v>0.8836155139039079</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1713</v>
+        <v>1764</v>
       </c>
       <c r="B60" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C60" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="E60">
-        <v>0.8836155139039079</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9081,16 +9035,16 @@
         <v>1764</v>
       </c>
       <c r="B61" t="s">
+        <v>495</v>
+      </c>
+      <c r="C61" t="s">
         <v>497</v>
       </c>
-      <c r="C61" t="s">
-        <v>507</v>
-      </c>
       <c r="D61" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E61">
-        <v>0.6592270483859637</v>
+        <v>0.8184656585502179</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9098,16 +9052,16 @@
         <v>1764</v>
       </c>
       <c r="B62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C62" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="D62" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="E62">
-        <v>0.8184656585502179</v>
+        <v>1.058573600066719</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9115,16 +9069,16 @@
         <v>1764</v>
       </c>
       <c r="B63" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C63" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D63" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="E63">
-        <v>1.058573600066719</v>
+        <v>1.169218927334223</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9132,16 +9086,16 @@
         <v>1764</v>
       </c>
       <c r="B64" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C64" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D64" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="E64">
-        <v>1.169218927334223</v>
+        <v>1.061585987944213</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -9149,33 +9103,33 @@
         <v>1764</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C65" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E65">
-        <v>1.061585987944213</v>
+        <v>1.071521975766549</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B66" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C66" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D66" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="E66">
-        <v>1.071521975766549</v>
+        <v>0.7888442792162861</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -9183,16 +9137,16 @@
         <v>1761</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C67" t="s">
-        <v>550</v>
+        <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>582</v>
+        <v>137</v>
       </c>
       <c r="E67">
-        <v>0.7888442792162861</v>
+        <v>1.168115386877489</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -9200,16 +9154,16 @@
         <v>1761</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>548</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>603</v>
       </c>
       <c r="E68">
-        <v>1.168115386877489</v>
+        <v>1.017273254958167</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -9217,16 +9171,16 @@
         <v>1761</v>
       </c>
       <c r="B69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C69" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D69" t="s">
-        <v>606</v>
+        <v>481</v>
       </c>
       <c r="E69">
-        <v>1.017273254958167</v>
+        <v>1.09372744738631</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -9234,16 +9188,16 @@
         <v>1761</v>
       </c>
       <c r="B70" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C70" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D70" t="s">
-        <v>483</v>
+        <v>604</v>
       </c>
       <c r="E70">
-        <v>1.09372744738631</v>
+        <v>0.996933283883386</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -9251,16 +9205,16 @@
         <v>1761</v>
       </c>
       <c r="B71" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C71" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D71" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E71">
-        <v>0.996933283883386</v>
+        <v>1.067361232445398</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -9268,33 +9222,33 @@
         <v>1761</v>
       </c>
       <c r="B72" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C72" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D72" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E72">
-        <v>1.067361232445398</v>
+        <v>1.086764744715484</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1761</v>
+        <v>1793</v>
       </c>
       <c r="B73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C73" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D73" t="s">
-        <v>609</v>
+        <v>563</v>
       </c>
       <c r="E73">
-        <v>1.086764744715484</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -9302,16 +9256,16 @@
         <v>1793</v>
       </c>
       <c r="B74" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C74" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D74" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="E74">
-        <v>0.6592270483859637</v>
+        <v>1.108720783932611</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -9319,16 +9273,16 @@
         <v>1793</v>
       </c>
       <c r="B75" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C75" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D75" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E75">
-        <v>1.108720783932611</v>
+        <v>1.017273254958167</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -9336,16 +9290,16 @@
         <v>1793</v>
       </c>
       <c r="B76" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C76" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D76" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E76">
-        <v>1.017273254958167</v>
+        <v>1.177938290224621</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -9353,33 +9307,33 @@
         <v>1793</v>
       </c>
       <c r="B77" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D77" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E77">
-        <v>1.177938290224621</v>
+        <v>0.8860372259244497</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1793</v>
+        <v>1722</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D78" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E78">
-        <v>0.8860372259244497</v>
+        <v>1.115409354965359</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -9387,33 +9341,33 @@
         <v>1722</v>
       </c>
       <c r="B79" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C79" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E79">
-        <v>1.115409354965359</v>
+        <v>0.9890468528843659</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1722</v>
+        <v>1779</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C80" t="s">
-        <v>562</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="E80">
-        <v>0.9890468528843659</v>
+        <v>0.6592270483859637</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -9421,16 +9375,16 @@
         <v>1779</v>
       </c>
       <c r="B81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C81" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="D81" t="s">
-        <v>566</v>
+        <v>613</v>
       </c>
       <c r="E81">
-        <v>0.6592270483859637</v>
+        <v>1.077757116233793</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -9438,16 +9392,16 @@
         <v>1779</v>
       </c>
       <c r="B82" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C82" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D82" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E82">
-        <v>1.077757116233793</v>
+        <v>0.9872478204190998</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -9455,32 +9409,15 @@
         <v>1779</v>
       </c>
       <c r="B83" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C83" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D83" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E83">
-        <v>0.9872478204190998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>1779</v>
-      </c>
-      <c r="B84" t="s">
-        <v>497</v>
-      </c>
-      <c r="C84" t="s">
-        <v>565</v>
-      </c>
-      <c r="D84" t="s">
-        <v>618</v>
-      </c>
-      <c r="E84">
         <v>1.105928260332679</v>
       </c>
     </row>
@@ -9491,7 +9428,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9519,13 +9456,13 @@
         <v>1698</v>
       </c>
       <c r="B2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E2">
         <v>0.7489929619820657</v>
@@ -9536,13 +9473,13 @@
         <v>1698</v>
       </c>
       <c r="B3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E3">
         <v>0.8848624763929944</v>
@@ -9553,13 +9490,13 @@
         <v>1718</v>
       </c>
       <c r="B4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" t="s">
         <v>619</v>
       </c>
-      <c r="C4" t="s">
-        <v>622</v>
-      </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0.9169562191210197</v>
@@ -9570,13 +9507,13 @@
         <v>1718</v>
       </c>
       <c r="B5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E5">
         <v>0.7489929619820657</v>
@@ -9587,13 +9524,13 @@
         <v>1718</v>
       </c>
       <c r="B6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E6">
         <v>0.7367512496825201</v>
@@ -9604,13 +9541,13 @@
         <v>1718</v>
       </c>
       <c r="B7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E7">
         <v>0.9577619676899788</v>
@@ -9621,13 +9558,13 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C8" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E8">
         <v>0.7489929619820657</v>
@@ -9638,13 +9575,13 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D9" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E9">
         <v>0.7588274135099927</v>
@@ -9655,13 +9592,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E10">
         <v>0.7876623503383756</v>
@@ -9672,13 +9609,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D11" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E11">
         <v>0.7832032227443357</v>
@@ -9689,13 +9626,13 @@
         <v>1747</v>
       </c>
       <c r="B12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E12">
         <v>1.038414669712148</v>
@@ -9706,13 +9643,13 @@
         <v>1788</v>
       </c>
       <c r="B13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C13" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D13" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E13">
         <v>0.7489929619820657</v>
@@ -9723,13 +9660,13 @@
         <v>1788</v>
       </c>
       <c r="B14" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C14" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D14" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="E14">
         <v>0.8166543846243403</v>
@@ -9740,10 +9677,10 @@
         <v>1788</v>
       </c>
       <c r="B15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C15" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D15" t="s">
         <v>134</v>
@@ -9757,13 +9694,13 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C16" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D16" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E16">
         <v>0.7489929619820657</v>
@@ -9774,13 +9711,13 @@
         <v>1766</v>
       </c>
       <c r="B17" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D17" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E17">
         <v>0.7974103551814686</v>
@@ -9791,13 +9728,13 @@
         <v>1766</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C18" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E18">
         <v>0.7303207438302042</v>
@@ -9805,19 +9742,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1766</v>
+        <v>1745</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
-        <v>269</v>
+        <v>685</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.7667675077929614</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9825,16 +9762,16 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C20" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D20" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E20">
-        <v>0.7667675077929614</v>
+        <v>0.472567724095974</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9842,16 +9779,16 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E21">
-        <v>0.472567724095974</v>
+        <v>1.048201380571471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9859,16 +9796,16 @@
         <v>1745</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="E22">
-        <v>1.048201380571471</v>
+        <v>0.7303207438302042</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9876,16 +9813,16 @@
         <v>1745</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C23" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D23" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E23">
-        <v>0.7303207438302042</v>
+        <v>0.7588274135099927</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9893,16 +9830,16 @@
         <v>1745</v>
       </c>
       <c r="B24" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D24" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E24">
-        <v>0.7588274135099927</v>
+        <v>1.03289855280119</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9910,16 +9847,16 @@
         <v>1745</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E25">
-        <v>1.03289855280119</v>
+        <v>1.051450154967074</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9927,33 +9864,33 @@
         <v>1745</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C26" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D26" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E26">
-        <v>1.051450154967074</v>
+        <v>0.9713809627039499</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1745</v>
+        <v>1780</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C27" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="D27" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
       <c r="E27">
-        <v>0.9713809627039499</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9961,16 +9898,16 @@
         <v>1780</v>
       </c>
       <c r="B28" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C28" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="D28" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="E28">
-        <v>0.7489929619820657</v>
+        <v>0.6642325048536707</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9978,16 +9915,16 @@
         <v>1780</v>
       </c>
       <c r="B29" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C29" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D29" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E29">
-        <v>0.6642325048536707</v>
+        <v>0.8490724355937054</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9995,16 +9932,16 @@
         <v>1780</v>
       </c>
       <c r="B30" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C30" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D30" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
       <c r="E30">
-        <v>0.8490724355937054</v>
+        <v>0.7588274135099927</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10012,33 +9949,33 @@
         <v>1780</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C31" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D31" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="E31">
-        <v>0.7588274135099927</v>
+        <v>1.122953488493125</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1780</v>
+        <v>1690</v>
       </c>
       <c r="B32" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C32" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D32" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="E32">
-        <v>1.122953488493125</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10046,16 +9983,16 @@
         <v>1690</v>
       </c>
       <c r="B33" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C33" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="D33" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
       <c r="E33">
-        <v>0.7489929619820657</v>
+        <v>1.122953488493125</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -10063,33 +10000,33 @@
         <v>1690</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C34" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D34" t="s">
-        <v>699</v>
+        <v>112</v>
       </c>
       <c r="E34">
-        <v>1.122953488493125</v>
+        <v>0.9161731985276799</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1690</v>
+        <v>1702</v>
       </c>
       <c r="B35" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C35" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>674</v>
       </c>
       <c r="E35">
-        <v>0.9161731985276799</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -10097,16 +10034,16 @@
         <v>1702</v>
       </c>
       <c r="B36" t="s">
+        <v>616</v>
+      </c>
+      <c r="C36" t="s">
         <v>619</v>
       </c>
-      <c r="C36" t="s">
-        <v>623</v>
-      </c>
       <c r="D36" t="s">
-        <v>678</v>
+        <v>218</v>
       </c>
       <c r="E36">
-        <v>0.7489929619820657</v>
+        <v>0.9169562191210197</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -10114,16 +10051,16 @@
         <v>1702</v>
       </c>
       <c r="B37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C37" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="D37" t="s">
-        <v>219</v>
+        <v>696</v>
       </c>
       <c r="E37">
-        <v>0.9169562191210197</v>
+        <v>0.7435744147321699</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -10131,16 +10068,16 @@
         <v>1702</v>
       </c>
       <c r="B38" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C38" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D38" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E38">
-        <v>0.7435744147321699</v>
+        <v>0.8071838127103468</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -10148,33 +10085,33 @@
         <v>1702</v>
       </c>
       <c r="B39" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C39" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D39" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="E39">
-        <v>0.8071838127103468</v>
+        <v>0.7588274135099927</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1702</v>
+        <v>1769</v>
       </c>
       <c r="B40" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C40" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="D40" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E40">
-        <v>0.7588274135099927</v>
+        <v>0.7667675077929614</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -10182,16 +10119,16 @@
         <v>1769</v>
       </c>
       <c r="B41" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>73</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>0.7667675077929614</v>
+        <v>0.978797722856463</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -10199,16 +10136,16 @@
         <v>1769</v>
       </c>
       <c r="B42" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>649</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>698</v>
       </c>
       <c r="E42">
-        <v>0.978797722856463</v>
+        <v>0.8835019945672644</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -10216,33 +10153,33 @@
         <v>1769</v>
       </c>
       <c r="B43" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C43" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D43" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E43">
-        <v>0.8835019945672644</v>
+        <v>1.003693316132524</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="B44" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C44" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="D44" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="E44">
-        <v>1.003693316132524</v>
+        <v>0.7667675077929614</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -10250,16 +10187,16 @@
         <v>1764</v>
       </c>
       <c r="B45" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C45" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="D45" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E45">
-        <v>0.7667675077929614</v>
+        <v>0.9713727303263534</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -10267,16 +10204,16 @@
         <v>1764</v>
       </c>
       <c r="B46" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C46" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D46" t="s">
-        <v>704</v>
+        <v>678</v>
       </c>
       <c r="E46">
-        <v>0.9713727303263534</v>
+        <v>0.7588274135099927</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10284,16 +10221,16 @@
         <v>1764</v>
       </c>
       <c r="B47" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C47" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="D47" t="s">
-        <v>682</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>0.7588274135099927</v>
+        <v>0.9169562191210197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10301,16 +10238,16 @@
         <v>1764</v>
       </c>
       <c r="B48" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C48" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D48" t="s">
-        <v>219</v>
+        <v>701</v>
       </c>
       <c r="E48">
-        <v>0.9169562191210197</v>
+        <v>1.047524801502739</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10318,33 +10255,33 @@
         <v>1764</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C49" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D49" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E49">
-        <v>1.047524801502739</v>
+        <v>0.7321569688511285</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1764</v>
+        <v>1624</v>
       </c>
       <c r="B50" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C50" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D50" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="E50">
-        <v>0.7321569688511285</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10352,16 +10289,16 @@
         <v>1624</v>
       </c>
       <c r="B51" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C51" t="s">
-        <v>659</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>678</v>
+        <v>218</v>
       </c>
       <c r="E51">
-        <v>0.7489929619820657</v>
+        <v>0.9169562191210197</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10369,16 +10306,16 @@
         <v>1624</v>
       </c>
       <c r="B52" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D52" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="E52">
-        <v>0.9169562191210197</v>
+        <v>0.9257701719135342</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10386,16 +10323,16 @@
         <v>1624</v>
       </c>
       <c r="B53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C53" t="s">
-        <v>194</v>
+        <v>656</v>
       </c>
       <c r="D53" t="s">
-        <v>259</v>
+        <v>703</v>
       </c>
       <c r="E53">
-        <v>0.9257701719135342</v>
+        <v>0.9426319568389155</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -10403,16 +10340,16 @@
         <v>1624</v>
       </c>
       <c r="B54" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C54" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D54" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E54">
-        <v>0.9426319568389155</v>
+        <v>1.172060983414791</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -10420,16 +10357,16 @@
         <v>1624</v>
       </c>
       <c r="B55" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C55" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D55" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E55">
-        <v>1.172060983414791</v>
+        <v>0.9483483774368044</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -10437,33 +10374,33 @@
         <v>1624</v>
       </c>
       <c r="B56" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C56" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D56" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E56">
-        <v>0.9483483774368044</v>
+        <v>0.8946289363911188</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1624</v>
+        <v>1761</v>
       </c>
       <c r="B57" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C57" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D57" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
       <c r="E57">
-        <v>0.8946289363911188</v>
+        <v>0.7667675077929614</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -10471,16 +10408,16 @@
         <v>1761</v>
       </c>
       <c r="B58" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C58" t="s">
-        <v>664</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>689</v>
+        <v>137</v>
       </c>
       <c r="E58">
-        <v>0.7667675077929614</v>
+        <v>0.978797722856463</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -10488,16 +10425,16 @@
         <v>1761</v>
       </c>
       <c r="B59" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>661</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>707</v>
       </c>
       <c r="E59">
-        <v>0.978797722856463</v>
+        <v>0.8858688372951454</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -10505,33 +10442,33 @@
         <v>1761</v>
       </c>
       <c r="B60" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C60" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D60" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E60">
-        <v>0.8858688372951454</v>
+        <v>0.8523750886501864</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1761</v>
+        <v>1786</v>
       </c>
       <c r="B61" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C61" t="s">
-        <v>666</v>
+        <v>623</v>
       </c>
       <c r="D61" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="E61">
-        <v>0.8523750886501864</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -10539,16 +10476,16 @@
         <v>1786</v>
       </c>
       <c r="B62" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C62" t="s">
-        <v>626</v>
+        <v>663</v>
       </c>
       <c r="D62" t="s">
-        <v>678</v>
+        <v>709</v>
       </c>
       <c r="E62">
-        <v>0.7489929619820657</v>
+        <v>0.8732271949910385</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -10556,16 +10493,16 @@
         <v>1786</v>
       </c>
       <c r="B63" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C63" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D63" t="s">
-        <v>713</v>
+        <v>678</v>
       </c>
       <c r="E63">
-        <v>0.8732271949910385</v>
+        <v>0.7588274135099927</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -10573,33 +10510,33 @@
         <v>1786</v>
       </c>
       <c r="B64" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C64" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D64" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="E64">
-        <v>0.7588274135099927</v>
+        <v>1.003859416964126</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1786</v>
+        <v>1793</v>
       </c>
       <c r="B65" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C65" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D65" t="s">
-        <v>714</v>
+        <v>674</v>
       </c>
       <c r="E65">
-        <v>1.003859416964126</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -10607,16 +10544,16 @@
         <v>1793</v>
       </c>
       <c r="B66" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C66" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D66" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
       <c r="E66">
-        <v>0.7489929619820657</v>
+        <v>1.050476078315892</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -10624,16 +10561,16 @@
         <v>1793</v>
       </c>
       <c r="B67" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C67" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D67" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E67">
-        <v>1.050476078315892</v>
+        <v>0.8986319049122345</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -10641,16 +10578,16 @@
         <v>1793</v>
       </c>
       <c r="B68" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C68" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D68" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E68">
-        <v>0.8986319049122345</v>
+        <v>1.077468538080368</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -10658,33 +10595,33 @@
         <v>1793</v>
       </c>
       <c r="B69" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C69" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D69" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E69">
-        <v>1.077468538080368</v>
+        <v>0.9899979505414834</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>1793</v>
+        <v>1733</v>
       </c>
       <c r="B70" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C70" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D70" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E70">
-        <v>0.9899979505414834</v>
+        <v>0.7489929619820657</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -10692,16 +10629,16 @@
         <v>1733</v>
       </c>
       <c r="B71" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C71" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D71" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E71">
-        <v>0.7489929619820657</v>
+        <v>0.9511117349066773</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -10709,32 +10646,15 @@
         <v>1733</v>
       </c>
       <c r="B72" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C72" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D72" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E72">
-        <v>0.9511117349066773</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>1733</v>
-      </c>
-      <c r="B73" t="s">
-        <v>619</v>
-      </c>
-      <c r="C73" t="s">
-        <v>677</v>
-      </c>
-      <c r="D73" t="s">
-        <v>721</v>
-      </c>
-      <c r="E73">
         <v>0.9169562191210197</v>
       </c>
     </row>
@@ -10745,7 +10665,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10773,13 +10693,13 @@
         <v>1716</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E2">
         <v>0.806656570775802</v>
@@ -10790,10 +10710,10 @@
         <v>1716</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
         <v>137</v>
@@ -10807,13 +10727,13 @@
         <v>1716</v>
       </c>
       <c r="B4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E4">
         <v>0.9108793317751678</v>
@@ -10824,13 +10744,13 @@
         <v>1716</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E5">
         <v>0.7502143568106078</v>
@@ -10841,13 +10761,13 @@
         <v>1747</v>
       </c>
       <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
         <v>722</v>
       </c>
-      <c r="C6" t="s">
-        <v>726</v>
-      </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E6">
         <v>0.837583313610941</v>
@@ -10858,13 +10778,13 @@
         <v>1747</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D7" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E7">
         <v>0.7311144551179773</v>
@@ -10875,13 +10795,13 @@
         <v>1747</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E8">
         <v>0.7333973840582184</v>
@@ -10892,13 +10812,13 @@
         <v>1747</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D9" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E9">
         <v>0.7790604171279367</v>
@@ -10909,13 +10829,13 @@
         <v>1747</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C10" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E10">
         <v>0.8106930101357738</v>
@@ -10926,13 +10846,13 @@
         <v>1747</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D11" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E11">
         <v>0.7749700479429686</v>
@@ -10943,13 +10863,13 @@
         <v>1766</v>
       </c>
       <c r="B12" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C12" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D12" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E12">
         <v>0.5446241734593671</v>
@@ -10960,13 +10880,13 @@
         <v>1766</v>
       </c>
       <c r="B13" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C13" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E13">
         <v>0.93336152923908</v>
@@ -10977,13 +10897,13 @@
         <v>1766</v>
       </c>
       <c r="B14" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C14" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D14" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E14">
         <v>0.9226427242897708</v>
@@ -10994,13 +10914,13 @@
         <v>1766</v>
       </c>
       <c r="B15" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C15" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D15" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="E15">
         <v>0.9365854773459654</v>
@@ -11011,13 +10931,13 @@
         <v>1766</v>
       </c>
       <c r="B16" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C16" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="E16">
         <v>1.005238001671003</v>
@@ -11028,13 +10948,13 @@
         <v>1745</v>
       </c>
       <c r="B17" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C17" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D17" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="E17">
         <v>0.7311144551179773</v>
@@ -11045,13 +10965,13 @@
         <v>1745</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D18" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E18">
         <v>0.9108793317751678</v>
@@ -11062,13 +10982,13 @@
         <v>1745</v>
       </c>
       <c r="B19" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C19" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D19" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E19">
         <v>0.8516045857136848</v>
@@ -11079,13 +10999,13 @@
         <v>1745</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C20" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E20">
         <v>0.9859692902073258</v>
@@ -11096,13 +11016,13 @@
         <v>1745</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D21" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="E21">
         <v>0.9539392128316191</v>
@@ -11113,13 +11033,13 @@
         <v>1780</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C22" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D22" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="E22">
         <v>0.6795423519142396</v>
@@ -11130,13 +11050,13 @@
         <v>1780</v>
       </c>
       <c r="B23" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C23" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D23" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E23">
         <v>0.93336152923908</v>
@@ -11147,13 +11067,13 @@
         <v>1780</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C24" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E24">
         <v>0.8106930101357738</v>
@@ -11164,13 +11084,13 @@
         <v>1780</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C25" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D25" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E25">
         <v>0.7627205427971274</v>
@@ -11181,10 +11101,10 @@
         <v>1780</v>
       </c>
       <c r="B26" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C26" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D26" t="s">
         <v>134</v>
@@ -11198,13 +11118,13 @@
         <v>1690</v>
       </c>
       <c r="B27" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C27" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D27" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E27">
         <v>0.5446241734593671</v>
@@ -11215,13 +11135,13 @@
         <v>1690</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C28" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D28" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E28">
         <v>0.93336152923908</v>
@@ -11232,13 +11152,13 @@
         <v>1690</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C29" t="s">
         <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29">
         <v>0.7706095564520512</v>
@@ -11249,13 +11169,13 @@
         <v>1769</v>
       </c>
       <c r="B30" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C30" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D30" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E30">
         <v>0.8223006994857731</v>
@@ -11266,13 +11186,13 @@
         <v>1769</v>
       </c>
       <c r="B31" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C31" t="s">
         <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E31">
         <v>0.7706095564520512</v>
@@ -11283,13 +11203,13 @@
         <v>1769</v>
       </c>
       <c r="B32" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C32" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D32" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E32">
         <v>0.841325737995241</v>
@@ -11300,7 +11220,7 @@
         <v>1769</v>
       </c>
       <c r="B33" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
@@ -11317,13 +11237,13 @@
         <v>1736</v>
       </c>
       <c r="B34" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C34" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D34" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E34">
         <v>0.8068814279141181</v>
@@ -11334,13 +11254,13 @@
         <v>1736</v>
       </c>
       <c r="B35" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C35" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D35" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E35">
         <v>0.9078878433833319</v>
@@ -11351,13 +11271,13 @@
         <v>1736</v>
       </c>
       <c r="B36" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C36" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D36" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="E36">
         <v>0.9108793317751678</v>
@@ -11368,13 +11288,13 @@
         <v>1736</v>
       </c>
       <c r="B37" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C37" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D37" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E37">
         <v>0.6924294712617107</v>
@@ -11382,19 +11302,19 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="B38" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>751</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>794</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.4262629598827847</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11402,16 +11322,16 @@
         <v>1738</v>
       </c>
       <c r="B39" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C39" t="s">
-        <v>755</v>
+        <v>460</v>
       </c>
       <c r="D39" t="s">
-        <v>798</v>
+        <v>108</v>
       </c>
       <c r="E39">
-        <v>0.4262629598827847</v>
+        <v>0.7354371307049757</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11419,33 +11339,33 @@
         <v>1738</v>
       </c>
       <c r="B40" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>752</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>275</v>
       </c>
       <c r="E40">
-        <v>0.7354371307049757</v>
+        <v>0.9407388246433349</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1738</v>
+        <v>1761</v>
       </c>
       <c r="B41" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C41" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>795</v>
       </c>
       <c r="E41">
-        <v>0.9407388246433349</v>
+        <v>0.8560400539942107</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11453,16 +11373,16 @@
         <v>1761</v>
       </c>
       <c r="B42" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C42" t="s">
-        <v>757</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>799</v>
+        <v>137</v>
       </c>
       <c r="E42">
-        <v>0.8560400539942107</v>
+        <v>0.9679010557832814</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11470,16 +11390,16 @@
         <v>1761</v>
       </c>
       <c r="B43" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>662</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>708</v>
       </c>
       <c r="E43">
-        <v>0.9679010557832814</v>
+        <v>0.9354566982819414</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11487,16 +11407,16 @@
         <v>1761</v>
       </c>
       <c r="B44" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C44" t="s">
-        <v>666</v>
+        <v>754</v>
       </c>
       <c r="D44" t="s">
-        <v>712</v>
+        <v>796</v>
       </c>
       <c r="E44">
-        <v>0.9354566982819414</v>
+        <v>1.18622472821643</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11504,16 +11424,16 @@
         <v>1761</v>
       </c>
       <c r="B45" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C45" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D45" t="s">
-        <v>800</v>
+        <v>485</v>
       </c>
       <c r="E45">
-        <v>1.18622472821643</v>
+        <v>0.7591789343141579</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11521,16 +11441,16 @@
         <v>1761</v>
       </c>
       <c r="B46" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C46" t="s">
-        <v>759</v>
+        <v>72</v>
       </c>
       <c r="D46" t="s">
-        <v>487</v>
+        <v>136</v>
       </c>
       <c r="E46">
-        <v>0.7591789343141579</v>
+        <v>0.7443249531993663</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11538,16 +11458,16 @@
         <v>1761</v>
       </c>
       <c r="B47" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C47" t="s">
-        <v>72</v>
+        <v>756</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>797</v>
       </c>
       <c r="E47">
-        <v>0.7443249531993663</v>
+        <v>0.8941108996919775</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11555,16 +11475,16 @@
         <v>1761</v>
       </c>
       <c r="B48" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C48" t="s">
-        <v>760</v>
+        <v>197</v>
       </c>
       <c r="D48" t="s">
-        <v>801</v>
+        <v>261</v>
       </c>
       <c r="E48">
-        <v>0.8941108996919775</v>
+        <v>0.9752123829968873</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11572,33 +11492,33 @@
         <v>1761</v>
       </c>
       <c r="B49" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>757</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>798</v>
       </c>
       <c r="E49">
-        <v>0.9752123829968873</v>
+        <v>0.9602645389683202</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B50" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C50" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D50" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="E50">
-        <v>0.9602645389683202</v>
+        <v>0.5446241734593671</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11606,16 +11526,16 @@
         <v>1762</v>
       </c>
       <c r="B51" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C51" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D51" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="E51">
-        <v>0.5446241734593671</v>
+        <v>0.93336152923908</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11623,16 +11543,16 @@
         <v>1762</v>
       </c>
       <c r="B52" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C52" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D52" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E52">
-        <v>0.93336152923908</v>
+        <v>0.9803518040255446</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11640,16 +11560,16 @@
         <v>1762</v>
       </c>
       <c r="B53" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C53" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D53" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E53">
-        <v>0.9803518040255446</v>
+        <v>0.8201004625025297</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11657,33 +11577,33 @@
         <v>1762</v>
       </c>
       <c r="B54" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C54" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D54" t="s">
-        <v>805</v>
+        <v>108</v>
       </c>
       <c r="E54">
-        <v>0.8201004625025297</v>
+        <v>0.7354371307049757</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1762</v>
+        <v>1731</v>
       </c>
       <c r="B55" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C55" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>802</v>
       </c>
       <c r="E55">
-        <v>0.7354371307049757</v>
+        <v>0.9792759225810077</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11691,33 +11611,33 @@
         <v>1731</v>
       </c>
       <c r="B56" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C56" t="s">
-        <v>767</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
-        <v>806</v>
+        <v>485</v>
       </c>
       <c r="E56">
-        <v>0.9792759225810077</v>
+        <v>0.7591789343141579</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1731</v>
+        <v>1722</v>
       </c>
       <c r="B57" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C57" t="s">
-        <v>451</v>
+        <v>764</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>803</v>
       </c>
       <c r="E57">
-        <v>0.7591789343141579</v>
+        <v>0.93336152923908</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11725,16 +11645,16 @@
         <v>1722</v>
       </c>
       <c r="B58" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C58" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D58" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E58">
-        <v>0.93336152923908</v>
+        <v>0.9365854773459654</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11742,33 +11662,33 @@
         <v>1722</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C59" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D59" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E59">
-        <v>0.9365854773459654</v>
+        <v>0.9721310639933093</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1722</v>
+        <v>1733</v>
       </c>
       <c r="B60" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C60" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D60" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
       <c r="E60">
-        <v>0.9721310639933093</v>
+        <v>0.4262629598827847</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -11776,16 +11696,16 @@
         <v>1733</v>
       </c>
       <c r="B61" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C61" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="D61" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E61">
-        <v>0.4262629598827847</v>
+        <v>0.93336152923908</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11793,16 +11713,16 @@
         <v>1733</v>
       </c>
       <c r="B62" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C62" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D62" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="E62">
-        <v>0.93336152923908</v>
+        <v>0.9365854773459654</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11810,32 +11730,15 @@
         <v>1733</v>
       </c>
       <c r="B63" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C63" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D63" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E63">
-        <v>0.9365854773459654</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>1733</v>
-      </c>
-      <c r="B64" t="s">
-        <v>722</v>
-      </c>
-      <c r="C64" t="s">
-        <v>773</v>
-      </c>
-      <c r="D64" t="s">
-        <v>811</v>
-      </c>
-      <c r="E64">
         <v>0.9414971463668265</v>
       </c>
     </row>
